--- a/data/450_P_label_case.xlsx
+++ b/data/450_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1122 +448,2242 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004737600000000001</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01119791742533823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0094751</v>
+        <v>0.004737600000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07551059887823146</v>
+        <v>0.01119791742533823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.014213</v>
+        <v>0.0094751</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1637194653330251</v>
+        <v>0.07551059887823146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01895</v>
+        <v>0.014213</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2289021160869872</v>
+        <v>0.1637194653330251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.023688</v>
+        <v>0.01895</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2463165666829184</v>
+        <v>0.2289021160869872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02863</v>
+        <v>0.023688</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2394176647515071</v>
+        <v>0.2463165666829184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.033573</v>
+        <v>0.02863</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2168374906624505</v>
+        <v>0.2394176647515071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.038515</v>
+        <v>0.033573</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1908453845461025</v>
+        <v>0.2168374906624505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.043458</v>
+        <v>0.038515</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1663680141938065</v>
+        <v>0.1908453845461025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.048401</v>
+        <v>0.043458</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1446045064944032</v>
+        <v>0.1663680141938065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.053552</v>
+        <v>0.048401</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1253910299275383</v>
+        <v>0.1446045064944032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.058703</v>
+        <v>0.053552</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1092187790551124</v>
+        <v>0.1253910299275383</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06385299999999999</v>
+        <v>0.058703</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09597782321427005</v>
+        <v>0.1092187790551124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.069004</v>
+        <v>0.06385299999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08511638720805748</v>
+        <v>0.09597782321427005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.074155</v>
+        <v>0.069004</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07588373974073623</v>
+        <v>0.08511638720805748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.07951699999999999</v>
+        <v>0.074155</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0680074135275703</v>
+        <v>0.07588373974073623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.084879</v>
+        <v>0.07951699999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06138941988141076</v>
+        <v>0.0680074135275703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.08488</v>
+        <v>0.084879</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06147577430533559</v>
+        <v>0.06138941988141076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.090242</v>
+        <v>0.08488</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05610781834017263</v>
+        <v>0.06147577430533559</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.09560399999999999</v>
+        <v>0.090242</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05168691052025064</v>
+        <v>0.05610781834017263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.10097</v>
+        <v>0.09560399999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04793498792349313</v>
+        <v>0.05168691052025064</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.10654</v>
+        <v>0.10097</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04458315795039774</v>
+        <v>0.04793498792349313</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.11212</v>
+        <v>0.10654</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04172274002040092</v>
+        <v>0.04458315795039774</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.11769</v>
+        <v>0.11212</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03928188530640132</v>
+        <v>0.04172274002040092</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.12327</v>
+        <v>0.11769</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03718000352547005</v>
+        <v>0.03928188530640132</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.12884</v>
+        <v>0.12327</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03533069911023281</v>
+        <v>0.03718000352547005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.13463</v>
+        <v>0.12884</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03354493061319534</v>
+        <v>0.03533069911023281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.14042</v>
+        <v>0.13463</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03191947918589855</v>
+        <v>0.03354493061319534</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.14621</v>
+        <v>0.14042</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03042624929072554</v>
+        <v>0.03191947918589855</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.152</v>
+        <v>0.14621</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02904379574139923</v>
+        <v>0.03042624929072554</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.15779</v>
+        <v>0.152</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02775345791110206</v>
+        <v>0.02904379574139923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1638</v>
+        <v>0.15779</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02647241935274165</v>
+        <v>0.02775345791110206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.16981</v>
+        <v>0.1638</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02532221122517422</v>
+        <v>0.02647241935274165</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.17581</v>
+        <v>0.16981</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02429846796911327</v>
+        <v>0.02532221122517422</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.18182</v>
+        <v>0.17581</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02339621019503779</v>
+        <v>0.02429846796911327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.18782</v>
+        <v>0.18182</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02260507297112181</v>
+        <v>0.02339621019503779</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.19404</v>
+        <v>0.18782</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02184969961483149</v>
+        <v>0.02260507297112181</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.20026</v>
+        <v>0.19404</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02116398096227371</v>
+        <v>0.02184969961483149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.20649</v>
+        <v>0.20026</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02053069792678812</v>
+        <v>0.02116398096227371</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.21271</v>
+        <v>0.20649</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01993846852709392</v>
+        <v>0.02053069792678812</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.21893</v>
+        <v>0.21271</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01937649765626409</v>
+        <v>0.01993846852709392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.22536</v>
+        <v>0.21893</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01881653191957489</v>
+        <v>0.01937649765626409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.2318</v>
+        <v>0.22536</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01828391873581431</v>
+        <v>0.01881653191957489</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.23823</v>
+        <v>0.2318</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01777308740918744</v>
+        <v>0.01828391873581431</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.24467</v>
+        <v>0.23823</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01727661049844211</v>
+        <v>0.01777308740918744</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.25111</v>
+        <v>0.24467</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01678817166887983</v>
+        <v>0.01727661049844211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.25775</v>
+        <v>0.25111</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01628904445465083</v>
+        <v>0.01678817166887983</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2644</v>
+        <v>0.25775</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01581326374536321</v>
+        <v>0.01628904445465083</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.27105</v>
+        <v>0.2644</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01537086630216675</v>
+        <v>0.01581326374536321</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.2777</v>
+        <v>0.27105</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01497012101405815</v>
+        <v>0.01537086630216675</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.28435</v>
+        <v>0.2777</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01461715765442451</v>
+        <v>0.01497012101405815</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.2912</v>
+        <v>0.28435</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01427885376951065</v>
+        <v>0.01461715765442451</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.29806</v>
+        <v>0.2912</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01396922699872478</v>
+        <v>0.01427885376951065</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.30492</v>
+        <v>0.29806</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01368077489557196</v>
+        <v>0.01396922699872478</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.31178</v>
+        <v>0.30492</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01340834580280157</v>
+        <v>0.01368077489557196</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.31864</v>
+        <v>0.31178</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01314791784503448</v>
+        <v>0.01340834580280157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.3257</v>
+        <v>0.31864</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01288302499090125</v>
+        <v>0.01314791784503448</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.33276</v>
+        <v>0.3257</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01262594128426124</v>
+        <v>0.01288302499090125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.33983</v>
+        <v>0.33276</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01236590593684329</v>
+        <v>0.01262594128426124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.34689</v>
+        <v>0.33983</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01209153898954289</v>
+        <v>0.01236590593684329</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.35395</v>
+        <v>0.34689</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01179485797815034</v>
+        <v>0.01209153898954289</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.36122</v>
+        <v>0.35395</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01147031395337636</v>
+        <v>0.01179485797815034</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.36848</v>
+        <v>0.36122</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01114903302028194</v>
+        <v>0.01147031395337636</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.37575</v>
+        <v>0.36848</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01083415506601108</v>
+        <v>0.01114903302028194</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.38301</v>
+        <v>0.37575</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01052581241075989</v>
+        <v>0.01083415506601108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.39028</v>
+        <v>0.38301</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01022591095549903</v>
+        <v>0.01052581241075989</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.39773</v>
+        <v>0.39028</v>
       </c>
       <c r="B68" t="n">
-        <v>0.009908808895440229</v>
+        <v>0.01022591095549903</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.40519</v>
+        <v>0.39773</v>
       </c>
       <c r="B69" t="n">
-        <v>0.009609615671127957</v>
+        <v>0.009908808895440229</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.41265</v>
+        <v>0.40519</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009327530750841834</v>
+        <v>0.009609615671127957</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.42011</v>
+        <v>0.41265</v>
       </c>
       <c r="B71" t="n">
-        <v>0.009060597045479336</v>
+        <v>0.009327530750841834</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.42757</v>
+        <v>0.42011</v>
       </c>
       <c r="B72" t="n">
-        <v>0.00880644867475705</v>
+        <v>0.009060597045479336</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.43522</v>
+        <v>0.42757</v>
       </c>
       <c r="B73" t="n">
-        <v>0.008537166512580211</v>
+        <v>0.00880644867475705</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.44286</v>
+        <v>0.43522</v>
       </c>
       <c r="B74" t="n">
-        <v>0.008275087632505113</v>
+        <v>0.008537166512580211</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.45051</v>
+        <v>0.44286</v>
       </c>
       <c r="B75" t="n">
-        <v>0.008020194443679489</v>
+        <v>0.008275087632505113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.45816</v>
+        <v>0.45051</v>
       </c>
       <c r="B76" t="n">
-        <v>0.007773914109775414</v>
+        <v>0.008020194443679489</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4658</v>
+        <v>0.45816</v>
       </c>
       <c r="B77" t="n">
-        <v>0.007537755478979061</v>
+        <v>0.007773914109775414</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.47363</v>
+        <v>0.4658</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007298331453973175</v>
+        <v>0.007537755478979061</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4814600000000001</v>
+        <v>0.47363</v>
       </c>
       <c r="B79" t="n">
-        <v>0.007075598031484403</v>
+        <v>0.007298331453973175</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.48928</v>
+        <v>0.4814600000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.006869309349923159</v>
+        <v>0.007075598031484403</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4971100000000001</v>
+        <v>0.48928</v>
       </c>
       <c r="B81" t="n">
-        <v>0.006679350592424761</v>
+        <v>0.006869309349923159</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.50493</v>
+        <v>0.4971100000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.006512322763873301</v>
+        <v>0.006679350592424761</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5049399999999999</v>
+        <v>0.50493</v>
       </c>
       <c r="B83" t="n">
-        <v>0.006505503085032766</v>
+        <v>0.006512322763873301</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.51293</v>
+        <v>0.5049399999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>0.006334512107915734</v>
+        <v>0.006505503085032766</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.52093</v>
+        <v>0.51293</v>
       </c>
       <c r="B85" t="n">
-        <v>0.006170311999024583</v>
+        <v>0.006334512107915734</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.5289199999999999</v>
+        <v>0.52093</v>
       </c>
       <c r="B86" t="n">
-        <v>0.006010388498562608</v>
+        <v>0.006170311999024583</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.53692</v>
+        <v>0.5289199999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>0.005852493327647257</v>
+        <v>0.006010388498562608</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.54491</v>
+        <v>0.53692</v>
       </c>
       <c r="B88" t="n">
-        <v>0.005694296879627686</v>
+        <v>0.005852493327647257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.55307</v>
+        <v>0.54491</v>
       </c>
       <c r="B89" t="n">
-        <v>0.005523339625180797</v>
+        <v>0.005694296879627686</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.56123</v>
+        <v>0.55307</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0053436153267131</v>
+        <v>0.005523339625180797</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.56938</v>
+        <v>0.56123</v>
       </c>
       <c r="B91" t="n">
-        <v>0.00515904900297138</v>
+        <v>0.0053436153267131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.5775399999999999</v>
+        <v>0.56938</v>
       </c>
       <c r="B92" t="n">
-        <v>0.004974182861427296</v>
+        <v>0.00515904900297138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.5856899999999999</v>
+        <v>0.5775399999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>0.004793520424303941</v>
+        <v>0.004974182861427296</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.594</v>
+        <v>0.5856899999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>0.004611659118462708</v>
+        <v>0.004793520424303941</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.594</v>
       </c>
       <c r="B95" t="n">
-        <v>0.004435903343546015</v>
+        <v>0.004611659118462708</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.6106</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="B96" t="n">
-        <v>0.004268468652060709</v>
+        <v>0.004435903343546015</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.6189100000000001</v>
+        <v>0.6106</v>
       </c>
       <c r="B97" t="n">
-        <v>0.004110671289292799</v>
+        <v>0.004268468652060709</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.62721</v>
+        <v>0.6189100000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>0.003963602530853915</v>
+        <v>0.004110671289292799</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.63565</v>
+        <v>0.62721</v>
       </c>
       <c r="B99" t="n">
-        <v>0.003820502379761264</v>
+        <v>0.003963602530853915</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6440899999999999</v>
+        <v>0.63565</v>
       </c>
       <c r="B100" t="n">
-        <v>0.003683564219713571</v>
+        <v>0.003820502379761264</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.65252</v>
+        <v>0.6440899999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0035488331360568</v>
+        <v>0.003683564219713571</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.66096</v>
+        <v>0.65252</v>
       </c>
       <c r="B102" t="n">
-        <v>0.003412674231914707</v>
+        <v>0.0035488331360568</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.6694</v>
+        <v>0.66096</v>
       </c>
       <c r="B103" t="n">
-        <v>0.003272107319831814</v>
+        <v>0.003412674231914707</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.67796</v>
+        <v>0.6694</v>
       </c>
       <c r="B104" t="n">
-        <v>0.003124530042538578</v>
+        <v>0.003272107319831814</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.68652</v>
+        <v>0.67796</v>
       </c>
       <c r="B105" t="n">
-        <v>0.002972589637214922</v>
+        <v>0.003124530042538578</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.69508</v>
+        <v>0.68652</v>
       </c>
       <c r="B106" t="n">
-        <v>0.002819176132983107</v>
+        <v>0.002972589637214922</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.7036399999999999</v>
+        <v>0.69508</v>
       </c>
       <c r="B107" t="n">
-        <v>0.002666814431200005</v>
+        <v>0.002819176132983107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.71221</v>
+        <v>0.7036399999999999</v>
       </c>
       <c r="B108" t="n">
-        <v>0.002517609569015216</v>
+        <v>0.002666814431200005</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.72087</v>
+        <v>0.71221</v>
       </c>
       <c r="B109" t="n">
-        <v>0.002369273376013503</v>
+        <v>0.002517609569015216</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.72954</v>
+        <v>0.72087</v>
       </c>
       <c r="B110" t="n">
-        <v>0.002224157535858525</v>
+        <v>0.002369273376013503</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.73821</v>
+        <v>0.72954</v>
       </c>
       <c r="B111" t="n">
-        <v>0.002083820490262379</v>
+        <v>0.002224157535858525</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.74688</v>
+        <v>0.73821</v>
       </c>
       <c r="B112" t="n">
-        <v>0.00194963689738822</v>
+        <v>0.002083820490262379</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7555500000000001</v>
+        <v>0.74688</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001822689284035811</v>
+        <v>0.00194963689738822</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.76431</v>
+        <v>0.7555500000000001</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001700159155911594</v>
+        <v>0.001822689284035811</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.77307</v>
+        <v>0.76431</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001580851114123423</v>
+        <v>0.001700159155911594</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.78183</v>
+        <v>0.77307</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001465218074747272</v>
+        <v>0.001580851114123423</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.79059</v>
+        <v>0.78183</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001353635601203952</v>
+        <v>0.001465218074747272</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.79935</v>
+        <v>0.79059</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001246791746763066</v>
+        <v>0.001353635601203952</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.80819</v>
+        <v>0.79935</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001144166298144751</v>
+        <v>0.001246791746763066</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.81702</v>
+        <v>0.80819</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001047036054955771</v>
+        <v>0.001144166298144751</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.82586</v>
+        <v>0.81702</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0009548592312366367</v>
+        <v>0.001047036054955771</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.8347</v>
+        <v>0.82586</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0008668483010332859</v>
+        <v>0.0009548592312366367</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.84354</v>
+        <v>0.8347</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0007824031218067851</v>
+        <v>0.0008668483010332859</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.8524299999999999</v>
+        <v>0.84354</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0007003005984199565</v>
+        <v>0.0007824031218067851</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.8613299999999999</v>
+        <v>0.8524299999999999</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0006204570135297084</v>
+        <v>0.0007003005984199565</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.8702299999999999</v>
+        <v>0.8613299999999999</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0005435153881548543</v>
+        <v>0.0006204570135297084</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.87913</v>
+        <v>0.8702299999999999</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0004700439964551146</v>
+        <v>0.0005435153881548543</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.88802</v>
+        <v>0.87913</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0004006650237391067</v>
+        <v>0.0004700439964551146</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.8969600000000001</v>
+        <v>0.88802</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0003360354213773672</v>
+        <v>0.0004006650237391067</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.9059</v>
+        <v>0.8969600000000001</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002769503230365193</v>
+        <v>0.0003360354213773672</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.91484</v>
+        <v>0.9059</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002231597451492272</v>
+        <v>0.0002769503230365193</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.9148500000000001</v>
+        <v>0.91484</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002231854111587372</v>
+        <v>0.0002231597451492272</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.92379</v>
+        <v>0.9148500000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0001744554874616821</v>
+        <v>0.0002231854111587372</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.9327299999999999</v>
+        <v>0.92379</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0001309920987777073</v>
+        <v>0.0001744554874616821</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.9416899999999999</v>
+        <v>0.9327299999999999</v>
       </c>
       <c r="B135" t="n">
-        <v>9.320911549040196e-05</v>
+        <v>0.0001309920987777073</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.9506600000000001</v>
+        <v>0.9416899999999999</v>
       </c>
       <c r="B136" t="n">
-        <v>6.200733765114019e-05</v>
+        <v>9.320911549040196e-05</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.9596299999999999</v>
+        <v>0.9506600000000001</v>
       </c>
       <c r="B137" t="n">
-        <v>3.737350054262322e-05</v>
+        <v>6.200733765114019e-05</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.96859</v>
+        <v>0.9596299999999999</v>
       </c>
       <c r="B138" t="n">
-        <v>1.904255218270755e-05</v>
+        <v>3.737350054262322e-05</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.97756</v>
+        <v>0.96859</v>
       </c>
       <c r="B139" t="n">
-        <v>6.688916626851453e-06</v>
+        <v>1.904255218270755e-05</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.98654</v>
+        <v>0.97756</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.672734022730533e-07</v>
+        <v>6.688916626851453e-06</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
+        <v>0.98654</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-1.672734022730533e-07</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
         <v>0.99551</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B142" t="n">
         <v>-1.760619321414325e-06</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.0045</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.849380259108697e-06</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.0135</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.066690440791396e-05</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.0224</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.468314198951508e-05</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.0314</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.39067358937858e-05</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.0404</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.810163132017836e-05</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.0493</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9.70392906148354e-05</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.0583</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.0001305483750502689</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.0673</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.0001684081759600298</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.0762</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.0002109059837958589</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.0852</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.0002583885605950414</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.0941</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.0003114646290292528</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.000370947656039074</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.000437739517933951</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.1209</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.0005113348047529607</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.1298</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.0005934729089224963</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.1387</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.0006832895718932871</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.1476</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.0007797153245702566</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.1565</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.0008814474146456452</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.1653</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.0009857980171616798</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.1741</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.001095150962391319</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.001209503323852384</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.1918</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.001328887981040293</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.2007</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.001453087823467137</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.2094</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.001577919179547788</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.2182</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.001705139670039782</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.2269</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.001832893986491219</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.2357</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.001959410372872682</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.2445</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.002082208049456271</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.2531</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.002202761023116444</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.2618</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.002322439349895244</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.2705</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.00244318867414653</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.2791</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.002567516019827419</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.2878</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.002698492510304771</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.2964</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.00283464229142942</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.3049</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.002979229428328917</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.3135</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.00312985640172681</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.322</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.003284012048690056</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.3306</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.003438351522191224</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.003584524695822364</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.3475</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.003726235260575741</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.3559</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.003864057797623935</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.3644</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.003998950472450094</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.3728</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.004132564368444281</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.3811</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.004261823939828588</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.3894</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.004398408066110213</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.3977</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.004542299595532249</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.004692590005749711</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.4143</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.004848174665661967</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.4225</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.004996595189062574</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.4306</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.005151217135371975</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.4388</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.005310648661072297</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.4469</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.005473474281562541</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.4551</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.005637618660700948</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.4631</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.005793378933226308</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.4711</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.005951501137412604</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.4791</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.00610964483288778</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.4871</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.006265777029749272</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.4951</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.006418870195584635</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.5029</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.006561312326095973</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.5107</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.006711086886268374</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.5185</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.006867619551808792</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.5264</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.007029144088406322</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.5342</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.007193539006577055</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.5418</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.007352041978476141</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.5495</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.007521568258643575</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.5571</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.007701991040061198</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.5648</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.007893394573508619</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1.5724</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.008093781818556649</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1.5799</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.008280143614545998</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1.5873</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.008460352375508627</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1.5948</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.008642981389369177</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1.6023</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.008839283313035757</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1.6097</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.0090599990293058</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.009294931341706969</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1.6243</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.00955404022646905</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1.6315</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.009834211804822657</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1.6388</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.01013358479049982</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.01044900156415542</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1.6531</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.01076290738926765</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1.6602</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.01108600477931068</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1.6672</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.01142169030359766</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.6743</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.01177562331250219</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1.6814</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.01215360140521088</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1.6882</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.01252966989254126</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1.6951</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.01291287823783845</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1.7019</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.01330371234549222</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.7088</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.01370293182003953</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1.7157</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.01411197338006877</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1.7223</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.01450360350753988</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1.7289</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.01490547284372738</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1.7356</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.01532325898556374</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1.7422</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.01576156851206392</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1.7489</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.0162264427721424</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.7553</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.01666511302985535</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1.7618</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.01713784188569431</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1.7682</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.01765426029414181</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1.7746</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.01822304675171497</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.7811</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.01885199726937545</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1.7873</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.01947413123013806</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1.7935</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.0201454226815709</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1.7997</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.02085600851566033</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.02159700429046378</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1.8122</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.0223608414281198</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.02309716870551303</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1.8242</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.02387569583437251</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1.8302</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.02471822604576124</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1.8362</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.02564652541286225</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1.8422</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.0266904060750824</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.02780161649206407</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1.8538</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.02908252269424985</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1.8596</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.0305552149757128</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.8654</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.03223512399336291</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1.8712</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.034140821853516</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1.8767</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.03618208713293249</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1.8823</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.03850976551554579</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.8879</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.04120756814365172</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1.8935</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.04435317147569679</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.04801380811342352</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1.9044</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.05206871292531096</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1.9098</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.05679959253445101</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1.9151</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.0624684996999728</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1.9205</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.06932361762394379</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1.9258</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.07751453420311735</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.08703768967553609</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1.9361</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.09822381689855984</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1.9413</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.1118522089975905</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1.9464</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.1284906806334522</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1.9516</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.148271609188586</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1.9565</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.1705651213690532</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1.9615</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.195551971825123</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1.9664</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.2219411551112768</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1.9714</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.2447099350777714</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.9763</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.2514901153676141</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.981</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.2344189931216528</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.9811</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.2260163491113327</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.9858</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.1670589468752212</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1.9905</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.07717978319104264</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1.9953</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.01149757864097581</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
